--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GenderClassification\PycharmProjects\GenderClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653610BE-6B9F-4DFC-9632-6C03A65F8254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD8F7AF-25D8-4291-A539-8B3B2527075C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C2DB84C8-6754-4F67-B572-6701582EC74A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Sensor</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Osaka University Database</t>
   </si>
   <si>
-    <t>Three Sensors at Waist</t>
-  </si>
-  <si>
     <t>Wavelet + CNN</t>
   </si>
   <si>
@@ -141,6 +138,18 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>HAR+ OSAKA</t>
+  </si>
+  <si>
+    <t>prediction accuracy on test set: 83.3333%</t>
+  </si>
+  <si>
+    <t>One sensor at Waist</t>
+  </si>
+  <si>
+    <t>Reduced number of samples to be same as osaka dataset : 95.089%</t>
   </si>
 </sst>
 </file>
@@ -513,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4017CD-8FB0-4837-92B0-AD2FED3D2B1D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -568,7 +577,7 @@
         <v>5292</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -585,7 +594,7 @@
         <v>4894</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -602,7 +611,7 @@
         <v>4932</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -619,7 +628,7 @@
         <v>4780</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -636,7 +645,7 @@
         <v>4898</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -653,7 +662,7 @@
         <v>4769</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -670,74 +679,74 @@
         <v>4145</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>702416</v>
+      </c>
+      <c r="D10">
+        <v>1404</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>992959</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>3971</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13">
-        <v>702416</v>
-      </c>
-      <c r="D13">
-        <v>1404</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C14">
@@ -747,7 +756,42 @@
         <v>1404</v>
       </c>
       <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="C15">
+        <v>702416</v>
+      </c>
+      <c r="D15">
+        <v>1404</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1927064</v>
+      </c>
+      <c r="D17">
+        <v>7708</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GenderClassification\PycharmProjects\GenderClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD8F7AF-25D8-4291-A539-8B3B2527075C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3CF831-BD63-4251-85A4-DE1AAD6F231F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C2DB84C8-6754-4F67-B572-6701582EC74A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Sensor</t>
   </si>
@@ -150,6 +150,25 @@
   </si>
   <si>
     <t>Reduced number of samples to be same as osaka dataset : 95.089%</t>
+  </si>
+  <si>
+    <t>Level Walk + Slope up and down: 495 subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prediction accuracy on test set: 65.3137%
+prediction accuracy on test set: 71.5867%
+prediction accuracy on test set: 69.7417%
+prediction accuracy on test set: 69.0037%
+prediction accuracy on test set: 70.8487%
+prediction accuracy on test set: 66.0517%
+prediction accuracy on test set: 69.7417%
+prediction accuracy on test set: 64.2066%
+prediction accuracy on test set: 68.2657%
+prediction accuracy on test set: 68.2657%
+</t>
+  </si>
+  <si>
+    <t>val_accuracy: 0.7085</t>
   </si>
 </sst>
 </file>
@@ -522,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4017CD-8FB0-4837-92B0-AD2FED3D2B1D}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" customWidth="1"/>
     <col min="3" max="3" width="36.5546875" customWidth="1"/>
     <col min="4" max="4" width="33.88671875" customWidth="1"/>
@@ -794,6 +813,40 @@
         <v>23</v>
       </c>
     </row>
+    <row r="18" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>677159</v>
+      </c>
+      <c r="D18">
+        <v>1354</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>677159</v>
+      </c>
+      <c r="D19">
+        <v>1354</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GenderClassification\PycharmProjects\GenderClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3CF831-BD63-4251-85A4-DE1AAD6F231F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C19851-78F5-495E-9185-FEF55FDE7516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C2DB84C8-6754-4F67-B572-6701582EC74A}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>Wavelet + RF</t>
   </si>
   <si>
-    <t>Accuracy on test set : 66%</t>
-  </si>
-  <si>
     <t>Train accuracy: 0.9653%
 Test accuracy: 0.7473%</t>
   </si>
@@ -155,20 +152,15 @@
     <t>Level Walk + Slope up and down: 495 subjects</t>
   </si>
   <si>
-    <t xml:space="preserve">prediction accuracy on test set: 65.3137%
-prediction accuracy on test set: 71.5867%
-prediction accuracy on test set: 69.7417%
-prediction accuracy on test set: 69.0037%
-prediction accuracy on test set: 70.8487%
-prediction accuracy on test set: 66.0517%
-prediction accuracy on test set: 69.7417%
-prediction accuracy on test set: 64.2066%
-prediction accuracy on test set: 68.2657%
+    <t>val_accuracy: 0.7085</t>
+  </si>
+  <si>
+    <t>Accuracy on test set : 69.0037%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 prediction accuracy on test set: 68.2657%
 </t>
-  </si>
-  <si>
-    <t>val_accuracy: 0.7085</t>
   </si>
 </sst>
 </file>
@@ -544,7 +536,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -706,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>702416</v>
@@ -758,15 +750,15 @@
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>702416</v>
@@ -780,10 +772,10 @@
     </row>
     <row r="15" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>702416</v>
@@ -798,10 +790,10 @@
     <row r="16" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
       </c>
       <c r="C17">
         <v>1927064</v>
@@ -815,10 +807,10 @@
     </row>
     <row r="18" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>677159</v>
@@ -832,10 +824,10 @@
     </row>
     <row r="19" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
       <c r="C19">
         <v>677159</v>
